--- a/notebooks/Gabriel tissue dielectric parameters.xlsx
+++ b/notebooks/Gabriel tissue dielectric parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06f652623d93e77a/IT/Python/jupyter_notebooks/@Projects/spatial-averaging-wg/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DDA88D2-5C5B-4191-BED4-B1423CB36FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{8DDA88D2-5C5B-4191-BED4-B1423CB36FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E230617-7ED7-499C-BCFC-13D5AD6FD17E}"/>
   <bookViews>
-    <workbookView xWindow="7725" yWindow="570" windowWidth="25635" windowHeight="20850" xr2:uid="{8C74FF3E-162E-4058-9FAB-89CF4060F034}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="16695" windowHeight="18810" xr2:uid="{8C74FF3E-162E-4058-9FAB-89CF4060F034}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,6 @@
     <t>blood</t>
   </si>
   <si>
-    <t xml:space="preserve">bone cancellous </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bone cortical</t>
-  </si>
-  <si>
     <t>bone marrow (infiltrated)</t>
   </si>
   <si>
@@ -219,6 +213,12 @@
   </si>
   <si>
     <t>e4</t>
+  </si>
+  <si>
+    <t>bone cancellous</t>
+  </si>
+  <si>
+    <t>bone cortical</t>
   </si>
 </sst>
 </file>
@@ -350,6 +350,7 @@
       <sheetName val="Hurt_tissue"/>
       <sheetName val="Gabriel_tissue"/>
       <sheetName val="Gabfreq"/>
+      <sheetName val="ACRBR tissue dielectric calcula"/>
     </sheetNames>
     <definedNames>
       <definedName name="eps0" refersTo="#REF!"/>
@@ -362,6 +363,7 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -667,7 +669,7 @@
   <dimension ref="A1:AS15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,132 +691,132 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3">
         <v>4</v>
@@ -951,7 +953,7 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3">
         <v>0.25</v>
@@ -1088,7 +1090,7 @@
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="3">
         <v>40</v>
@@ -1225,7 +1227,7 @@
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3">
         <v>8.8419999999999997E-12</v>
@@ -1362,7 +1364,7 @@
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3">
         <v>0.1</v>
@@ -1499,7 +1501,7 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3">
         <v>50</v>
@@ -1636,7 +1638,7 @@
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3">
         <v>3.1829999999999999E-9</v>
@@ -1773,7 +1775,7 @@
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3">
         <v>0.1</v>
@@ -1910,7 +1912,7 @@
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3">
         <v>100000</v>
@@ -2047,7 +2049,7 @@
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3">
         <v>1.5919999999999999E-4</v>
@@ -2184,7 +2186,7 @@
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3">
         <v>0.2</v>
@@ -2321,7 +2323,7 @@
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3">
         <v>10000000</v>
@@ -2458,7 +2460,7 @@
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" s="3">
         <v>1.5920000000000001E-3</v>
@@ -2595,7 +2597,7 @@
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
